--- a/newTest8.xlsx
+++ b/newTest8.xlsx
@@ -815,8 +815,7 @@
     <t>gravity on Mars is a mere 3.7 kg/m3</t>
   </si>
   <si>
-    <t>gravity on the Moon is slightly higher at
-4 kg/m3</t>
+    <t>gravity on the Moon is slightly higher at 4 kg/m3</t>
   </si>
   <si>
     <t>gravity on Mars is a negligible 0.01 kg/m3</t>
@@ -872,7 +871,7 @@
     <t>which served as proof of his apparent claims?</t>
   </si>
   <si>
-    <t>Iranian mathematician Maryam Mirzakhani, born in 1977, was renowned for her contributions to the field of theoretical mathematics, such as in Ergodic theory hyperbolic geometry, moduli spaces, and symplecticwon the prestigious Fields Medal, the first woman to do so.</t>
+    <t>Iranian mathematician Maryam Mirzakhani, born in 1977, was renowned for her contributions to the field of theoretical mathematics, such as in Ergodic theory hyperbolic geometry, moduli spaces, and symplectic _______ won the prestigious Fields Medal, the first woman to do so.</t>
   </si>
   <si>
     <t>Which choice completes the text so that it conforms 
@@ -891,7 +890,7 @@
     <t>geometry and she</t>
   </si>
   <si>
-    <t>The cherimoya is a fruit native to South America with a custard-like texture, a taste often compared to ice cream, and, says nutritionist Johan Liebert of Heinrich Heine University Dusseldorf a host of important vitamins and minerals; for example, adults eating just a single cherimoya will find it contains 60% of daily recommended amount of Vitamin C.</t>
+    <t>The cherimoya is a fruit native to South America with a custard-like texture, a taste often compared to ice cream, and, says nutritionist Johan Liebert of Heinrich Heine University Dusseldorf a host of important vitamins and minerals; for example, adults eating just a single cherimoya will find it contains 60% of _______ daily recommended amount of Vitamin C.</t>
   </si>
   <si>
     <t>it's</t>
@@ -1092,7 +1091,7 @@
     <t>If [[4b - 3 &gt; 7]], what is the greatest possible integer value of [[-2b + 4]]?</t>
   </si>
   <si>
-    <t>Which of the following is equivalent to [[\frac{x^2 + 6x + 9}{x^2 +7x +12}]]?</t>
+    <t>Which of the following is equivalent to [[\frac{x^2 + 6x + 9}{x^2 +7x +12}]]  ?</t>
   </si>
   <si>
     <t>[[\frac{6x + 9}{7x + 12}]]</t>
@@ -1208,7 +1207,8 @@
     <t>$5.80</t>
   </si>
   <si>
-    <t xml:space="preserve">If [[x \neq 3]], [[y \neq -5]], and [[xy = 15]], which of the \par following is equivalent to [[\frac{1}{\frac{1}{x - 3} + \frac{1}{y + 5}}]]?
+    <t xml:space="preserve">If [[x \neq 3]], [[y \neq -5]], and [[xy = 15]], which of the following is equivalent to 
+\par [[\frac{1}{\frac{1}{x - 3} + \frac{1}{y + 5}}]]?
 </t>
   </si>
   <si>
@@ -1242,7 +1242,7 @@
     <t>A restaurant randomly surveyed customers to determine how long customers are willing to wait for a table on a Friday night versus a Saturday night. On average, approximately how many minutes longer are customers willing to wait for a table on a Saturday night than on a Friday night?</t>
   </si>
   <si>
-    <t>The figure shows a rodeo arena divided into 12 equal sections, 4 of which contain bulls. If [[64 + \frac{16\pi}{3}]] yards are needed to reinforce all the edges of the 4 bull sections, what is the radius, in yards, of the arena?</t>
+    <t>The figure shows a rodeo arena divided into 12 equal sections, 4 of which contain bulls. If  [[64 + \frac{16\pi}{3}]] yards are needed to reinforce all the edges of the 4 bull sections, what is the radius, in yards, of the arena?</t>
   </si>
   <si>
     <t>Section2, Module2: Math(A)</t>
@@ -1404,7 +1404,7 @@
     <t>[[3x + 1 + \frac{2}{x + 1}]]</t>
   </si>
   <si>
-    <t>[[3x + 2 + \frac{9}{x + 1}]]</t>
+    <t>[[3x + 2 - \frac{9}{x + 1}]]</t>
   </si>
   <si>
     <t>[[2x^2 - x - 15 = 0]]</t>
@@ -1416,7 +1416,7 @@
     <t>[[\frac{5}{2}]]</t>
   </si>
   <si>
-    <t>[[-\frac{5}{2}]]</t>
+    <t>[[-\frac{2}{5}]]</t>
   </si>
   <si>
     <t>Which of the following functions correctly models the data in the table?</t>
@@ -1478,7 +1478,7 @@
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,6 +1489,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1504,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1570,6 +1576,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
@@ -4980,7 +4989,7 @@
         <v>1.0</v>
       </c>
       <c r="F78" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>339</v>
@@ -5320,7 +5329,7 @@
       <c r="X86" s="1"/>
     </row>
     <row r="87" ht="96.0" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="22" t="s">
         <v>312</v>
       </c>
       <c r="B87" s="1"/>
@@ -5330,7 +5339,7 @@
       <c r="D87" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="23" t="s">
         <v>365</v>
       </c>
       <c r="F87" s="20" t="s">
@@ -5370,10 +5379,10 @@
       <c r="D88" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F88" s="24" t="s">
         <v>371</v>
       </c>
       <c r="G88" s="2">
@@ -6175,7 +6184,7 @@
       <c r="D109" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="24" t="s">
         <v>408</v>
       </c>
       <c r="F109" s="2">
@@ -6409,9 +6418,9 @@
         <v>422</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
       <c r="H115" s="16" t="s">
         <v>423</v>
       </c>
